--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -52,6 +52,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -63,6 +64,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -74,6 +76,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -85,6 +88,7 @@
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Aptos Narrow"/>
@@ -422,7 +426,7 @@
     <numFmt numFmtId="177" formatCode="@"/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,12 +442,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>

--- a/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
+++ b/ResourceFiles/Liberty's Delightful Sinful Bakery & Cafe - Customer feedback.xlsx
@@ -182,7 +182,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>가격</t>
+      <t>Price</t>
     </r>
   </si>
   <si>
@@ -292,7 +292,7 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>가격</t>
+      <t>Price</t>
     </r>
   </si>
   <si>
